--- a/Experiments/Part4-DoNothing/Doc-popularity/Setting1 Result/Graphs.xlsx
+++ b/Experiments/Part4-DoNothing/Doc-popularity/Setting1 Result/Graphs.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="4680" windowWidth="29800" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="24160" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Setting1-Result100.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -654,11 +654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143733384"/>
-        <c:axId val="2135310040"/>
+        <c:axId val="2093651208"/>
+        <c:axId val="2037830072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143733384"/>
+        <c:axId val="2093651208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135310040"/>
+        <c:crossAx val="2037830072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -675,7 +675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135310040"/>
+        <c:axId val="2037830072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,7 +686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143733384"/>
+        <c:crossAx val="2093651208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1067,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AF1" sqref="AE1:AF1048576"/>
     </sheetView>
   </sheetViews>

--- a/Experiments/Part4-DoNothing/Doc-popularity/Setting1 Result/Graphs.xlsx
+++ b/Experiments/Part4-DoNothing/Doc-popularity/Setting1 Result/Graphs.xlsx
@@ -654,20 +654,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093651208"/>
-        <c:axId val="2037830072"/>
+        <c:axId val="2102986552"/>
+        <c:axId val="-2115417368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093651208"/>
+        <c:axId val="2102986552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2037830072"/>
+        <c:crossAx val="-2115417368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -675,18 +699,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2037830072"/>
+        <c:axId val="-2115417368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093651208"/>
+        <c:crossAx val="2102986552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,16 +755,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1067,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AE1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
